--- a/ficheiros/precario.xlsx
+++ b/ficheiros/precario.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="52">
   <si>
     <t>Tabela Privat</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>Entrada em vigor: 01 de Janeiro de 2010</t>
+  </si>
+  <si>
+    <t>Transferências para o resto do Mundo</t>
   </si>
 </sst>
 </file>
@@ -570,6 +573,36 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -581,36 +614,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1794,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1809,15 +1812,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="48" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="2" spans="1:8" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -1830,27 +1833,27 @@
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="31"/>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="57"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="31"/>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="55" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1859,8 +1862,8 @@
         <v>37</v>
       </c>
       <c r="B5" s="40"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="49"/>
       <c r="E5" s="42"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2264,7 +2267,7 @@
     </row>
     <row r="37" spans="1:5" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="34" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B37" s="35"/>
       <c r="C37" s="44"/>

--- a/ficheiros/precario.xlsx
+++ b/ficheiros/precario.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="54">
   <si>
     <t>Tabela Privat</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>Transferências para o resto do Mundo</t>
+  </si>
+  <si>
+    <t>Pagamentos através de MultiBanco</t>
+  </si>
+  <si>
+    <t>&lt; 130</t>
   </si>
 </sst>
 </file>
@@ -256,7 +262,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,8 +281,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -415,19 +427,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="3"/>
-      </right>
-      <top style="thin">
-        <color theme="3"/>
-      </top>
-      <bottom style="thin">
-        <color theme="3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="3"/>
       </left>
@@ -464,11 +463,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="3"/>
+      </left>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -518,26 +543,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -588,7 +610,7 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -597,6 +619,18 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -614,6 +648,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1789,16 +1835,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1812,15 +1859,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="58" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -1832,52 +1879,52 @@
       <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="56" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="50" t="s">
+      <c r="C3" s="60"/>
+      <c r="D3" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="51"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="52" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="54" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:8" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="42"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="26">
         <v>0</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="27">
         <v>0</v>
       </c>
     </row>
@@ -1896,38 +1943,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:8" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
-      <c r="G8" s="38"/>
-    </row>
-    <row r="9" spans="1:8" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
+      <c r="G8" s="37"/>
+    </row>
+    <row r="9" spans="1:8" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
-      <c r="G9" s="43"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="G9" s="42"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="27">
-        <v>0.04</v>
-      </c>
-      <c r="E10" s="29">
+      <c r="D10" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="E10" s="28">
         <v>3</v>
       </c>
     </row>
@@ -2076,36 +2123,36 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+    <row r="22" spans="1:5" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
-    </row>
-    <row r="23" spans="1:5" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+      <c r="B22" s="34"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+    </row>
+    <row r="23" spans="1:5" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="27">
-        <v>0.04</v>
-      </c>
-      <c r="E24" s="29">
+      <c r="D24" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="E24" s="28">
         <v>6</v>
       </c>
     </row>
@@ -2265,36 +2312,36 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+    <row r="37" spans="1:5" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="37"/>
-    </row>
-    <row r="38" spans="1:5" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
+      <c r="B37" s="34"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="36"/>
+    </row>
+    <row r="38" spans="1:5" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="42"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="41"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25" t="s">
+      <c r="B39" s="24"/>
+      <c r="C39" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="27">
-        <v>0.04</v>
-      </c>
-      <c r="E39" s="29">
+      <c r="D39" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="E39" s="28">
         <v>4.5</v>
       </c>
     </row>
@@ -2428,28 +2475,43 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="34" t="s">
+    <row r="50" spans="1:5" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="46"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="37"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="36"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="22" t="s">
+      <c r="B51" s="55"/>
+      <c r="C51" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D51" s="57">
         <v>0</v>
       </c>
-      <c r="E51" s="21">
+      <c r="E51" s="58">
         <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="65"/>
+      <c r="C52" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="67">
+        <v>0</v>
+      </c>
+      <c r="E52" s="68">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
